--- a/tables/low_carbon_development_and_environmental_indicators.xlsx
+++ b/tables/low_carbon_development_and_environmental_indicators.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
   <si>
     <t>Наименование показателя</t>
   </si>
@@ -70,13 +70,202 @@
   </si>
   <si>
     <t>Экологические налоги (налоги на энергоносители, транспортные налоги, налоги на загрязнение окружающей среды, налоги на использование ресурсов), млрд тенге</t>
+  </si>
+  <si>
+    <t>381,7</t>
+  </si>
+  <si>
+    <t>315,8</t>
+  </si>
+  <si>
+    <t>385,8</t>
+  </si>
+  <si>
+    <t>401,6</t>
+  </si>
+  <si>
+    <t>364,6</t>
+  </si>
+  <si>
+    <t>351,2</t>
+  </si>
+  <si>
+    <t>-8,0%</t>
+  </si>
+  <si>
+    <t>1,08</t>
+  </si>
+  <si>
+    <t>1,27</t>
+  </si>
+  <si>
+    <t>2,30</t>
+  </si>
+  <si>
+    <t>3,00</t>
+  </si>
+  <si>
+    <t>206,1%</t>
+  </si>
+  <si>
+    <t>84 987</t>
+  </si>
+  <si>
+    <t>75 227</t>
+  </si>
+  <si>
+    <t>73 148</t>
+  </si>
+  <si>
+    <t>65 671</t>
+  </si>
+  <si>
+    <t>-15,9%</t>
+  </si>
+  <si>
+    <t>40 699</t>
+  </si>
+  <si>
+    <t>41 916</t>
+  </si>
+  <si>
+    <t>45 510</t>
+  </si>
+  <si>
+    <t>40 332</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,4</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>-23,8%</t>
+  </si>
+  <si>
+    <t>4,2</t>
+  </si>
+  <si>
+    <t>4,7</t>
+  </si>
+  <si>
+    <t>4,1</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>-17,3%</t>
+  </si>
+  <si>
+    <t>15,2</t>
+  </si>
+  <si>
+    <t>16,7</t>
+  </si>
+  <si>
+    <t>17,1</t>
+  </si>
+  <si>
+    <t>15,7</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>99,7</t>
+  </si>
+  <si>
+    <t>175,4</t>
+  </si>
+  <si>
+    <t>191,0</t>
+  </si>
+  <si>
+    <t>221,7</t>
+  </si>
+  <si>
+    <t>210,4</t>
+  </si>
+  <si>
+    <t>245,7</t>
+  </si>
+  <si>
+    <t>7 450,0</t>
+  </si>
+  <si>
+    <t>5 234,6</t>
+  </si>
+  <si>
+    <t>7 574,3</t>
+  </si>
+  <si>
+    <t>9 387,9</t>
+  </si>
+  <si>
+    <t>9 687,5</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>1 191,1</t>
+  </si>
+  <si>
+    <t>1 446,1</t>
+  </si>
+  <si>
+    <t>1 594,3</t>
+  </si>
+  <si>
+    <t>203,9</t>
+  </si>
+  <si>
+    <t>-82,9%</t>
+  </si>
+  <si>
+    <t>86 962,0</t>
+  </si>
+  <si>
+    <t>111 161</t>
+  </si>
+  <si>
+    <t>198 721</t>
+  </si>
+  <si>
+    <t>173 618</t>
+  </si>
+  <si>
+    <t>295,2%</t>
+  </si>
+  <si>
+    <t>1 634,5</t>
+  </si>
+  <si>
+    <t>2 148,6</t>
+  </si>
+  <si>
+    <t>2 279,9</t>
+  </si>
+  <si>
+    <t>1 389,9</t>
+  </si>
+  <si>
+    <t>21,0%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,16 +273,94 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAF1DD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -101,18 +368,175 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -386,7 +810,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -396,410 +820,393 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection sqref="A1:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="57.75" thickBot="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="2">
         <v>1990</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="2">
         <v>2010</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="2">
         <v>2017</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="2">
         <v>2018</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="2">
         <v>2019</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="2">
         <v>2020</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="3">
         <v>2021</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" ht="121.5" thickBot="1">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>381.7</v>
-      </c>
-      <c r="C3">
-        <v>315.8</v>
-      </c>
-      <c r="D3">
-        <v>385.8</v>
-      </c>
-      <c r="E3">
-        <v>401.6</v>
-      </c>
-      <c r="F3">
-        <v>364.6</v>
-      </c>
-      <c r="G3">
-        <v>351.2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="145.5" thickBot="1">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>1.08</v>
-      </c>
-      <c r="E4">
-        <v>1.27</v>
-      </c>
-      <c r="F4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2.0609999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="61.5" thickBot="1">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2">
-        <v>84987</v>
-      </c>
-      <c r="E5" s="2">
-        <v>75227</v>
-      </c>
-      <c r="F5" s="2">
-        <v>73148</v>
-      </c>
-      <c r="G5" s="2">
-        <v>65671</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1">
-        <v>-0.159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="61.5" thickBot="1">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>40699</v>
-      </c>
-      <c r="E6" s="2">
-        <v>41916</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45510</v>
-      </c>
-      <c r="G6" s="2">
-        <v>40332</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="85.5" thickBot="1">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>0.4</v>
-      </c>
-      <c r="E7">
-        <v>0.4</v>
-      </c>
-      <c r="F7">
-        <v>0.3</v>
-      </c>
-      <c r="G7">
-        <v>0.3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="1">
-        <v>-0.23799999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
+      <c r="B7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="109.5" thickBot="1">
+      <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>4.2</v>
-      </c>
-      <c r="D8">
-        <v>4.7</v>
-      </c>
-      <c r="E8">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>3.5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="1">
-        <v>-0.17299999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="109.5" thickBot="1">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>15.2</v>
-      </c>
-      <c r="D9">
-        <v>16.7</v>
-      </c>
-      <c r="E9">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="F9">
-        <v>15.7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="1">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5" t="s">
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="1:9" ht="85.5" thickBot="1">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>99.7</v>
-      </c>
-      <c r="D11">
-        <v>175.4</v>
-      </c>
-      <c r="E11">
-        <v>191</v>
-      </c>
-      <c r="F11">
-        <v>221.7</v>
-      </c>
-      <c r="G11">
-        <v>210.4</v>
-      </c>
-      <c r="H11">
-        <v>245.7</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="B11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="17">
         <v>1.47</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
+    <row r="12" spans="1:9" ht="145.5" thickBot="1">
+      <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4">
-        <v>7450</v>
-      </c>
-      <c r="E12" s="4">
-        <v>5234.6000000000004</v>
-      </c>
-      <c r="F12" s="4">
-        <v>7574.3</v>
-      </c>
-      <c r="G12" s="4">
-        <v>9387.9</v>
-      </c>
-      <c r="H12" s="4">
-        <v>9687.5</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.96199999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
+      <c r="B12" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="169.5" thickBot="1">
+      <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1191.0999999999999</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1446.1</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1594.3</v>
-      </c>
-      <c r="H13">
-        <v>203.9</v>
-      </c>
-      <c r="I13" s="1">
-        <v>-0.82899999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
+      <c r="B13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="145.5" thickBot="1">
+      <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4">
-        <v>86962</v>
-      </c>
-      <c r="E14" s="2">
-        <v>111161</v>
-      </c>
-      <c r="F14" s="2">
-        <v>198721</v>
-      </c>
-      <c r="G14" s="2">
-        <v>173618</v>
-      </c>
-      <c r="H14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="1">
-        <v>2.952</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
+      <c r="B14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="265.5" thickBot="1">
+      <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1634.5</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2148.6</v>
-      </c>
-      <c r="F15" s="4">
-        <v>2279.9</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1389.9</v>
-      </c>
-      <c r="H15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.21</v>
+      <c r="B15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
